--- a/tables/Locations.xlsx
+++ b/tables/Locations.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS STUDIO PROJECTS\beforeCrisis\Before Crisis\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2130DF00-CA80-463F-AC65-CFB319C6DA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3600" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Locations" sheetId="2" r:id="rId1"/>
+    <sheet name="Enemies" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,91 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>Living house</t>
+  </si>
+  <si>
+    <t>Organisation highest floors</t>
+  </si>
+  <si>
+    <t>min_enemies</t>
+  </si>
+  <si>
+    <t>max_enemies</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Rival organisation</t>
+  </si>
+  <si>
+    <t>loc_id</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>dmg</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>The sixth son of the Antichrist</t>
+  </si>
+  <si>
+    <t>possible_loot</t>
+  </si>
+  <si>
+    <t>male civilian</t>
+  </si>
+  <si>
+    <t>female civilian</t>
+  </si>
+  <si>
+    <t>male office worker</t>
+  </si>
+  <si>
+    <t>female office worker</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>ninja</t>
+  </si>
+  <si>
+    <t>thug</t>
+  </si>
+  <si>
+    <t>killer</t>
+  </si>
+  <si>
+    <t>reward_exp</t>
+  </si>
+  <si>
+    <t>reward_money</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +423,330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70100698-C027-4EE0-8AF6-44364EA5AEB8}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1">
+        <v>120</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>130</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>110</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>300</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tables/Locations.xlsx
+++ b/tables/Locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS STUDIO PROJECTS\beforeCrisis\Before Crisis\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2130DF00-CA80-463F-AC65-CFB319C6DA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EF7115-ECE5-41EF-A250-4AB91C2C883C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="6495" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="2" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -493,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>40</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>80</v>
@@ -525,10 +525,10 @@
         <v>120</v>
       </c>
       <c r="F4" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
         <v>9</v>
-      </c>
-      <c r="G4" s="1">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
